--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>触摸屏没用，插入鼠标和键盘可以正常使用</t>
+  </si>
+  <si>
+    <t>点击换菜没有任何提示，但是换菜功能已经可以使用。</t>
   </si>
 </sst>
 </file>
@@ -117,14 +120,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -164,22 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +174,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -218,6 +190,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,23 +210,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,139 +295,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,41 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +565,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -611,6 +603,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,91 +634,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,10 +733,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,26 +745,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1195,7 +1195,7 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1209,11 +1209,11 @@
       <c r="A3" s="6">
         <v>43090</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1243,37 +1243,47 @@
       <c r="A5" s="6">
         <v>43094</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -67,7 +67,16 @@
     <t>触摸屏没用，插入鼠标和键盘可以正常使用</t>
   </si>
   <si>
+    <t>电线松了</t>
+  </si>
+  <si>
     <t>点击换菜没有任何提示，但是换菜功能已经可以使用。</t>
+  </si>
+  <si>
+    <t>宽窄巷子</t>
+  </si>
+  <si>
+    <t>触摸屏没用，插入鼠标和键盘可以正常使用，重新安装驱动也没用。</t>
   </si>
 </sst>
 </file>
@@ -76,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -120,6 +129,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -159,7 +176,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +206,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -190,13 +230,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,47 +243,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +304,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,6 +322,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,12 +340,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,6 +376,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,48 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,30 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,11 +526,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +576,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,36 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -603,17 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1239,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>43094</v>
       </c>
@@ -1251,9 +1260,14 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>43111</v>
+      </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1262,12 +1276,23 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>43115</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="11"/>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="11"/>

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -73,10 +73,16 @@
     <t>点击换菜没有任何提示，但是换菜功能已经可以使用。</t>
   </si>
   <si>
+    <t>提交给北京开发部，建议修改</t>
+  </si>
+  <si>
     <t>宽窄巷子</t>
   </si>
   <si>
     <t>触摸屏没用，插入鼠标和键盘可以正常使用，重新安装驱动也没用。</t>
+  </si>
+  <si>
+    <t>机器有问题，带回公司又可以用了，原因没找到</t>
   </si>
 </sst>
 </file>
@@ -85,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -122,15 +128,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +156,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,14 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -182,16 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +224,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -243,23 +247,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,90 +286,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,96 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,16 +551,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +582,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -590,39 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,145 +637,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,7 +1270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>43111</v>
       </c>
@@ -1278,8 +1284,11 @@
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>43115</v>
       </c>
@@ -1287,11 +1296,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:2">

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="21300" windowHeight="8922"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -135,9 +135,131 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,128 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -286,55 +286,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,127 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +550,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,6 +611,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,137 +649,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,8 +810,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1166,21 +1172,25 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.2666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.0416666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.0916666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.2702702702703" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.045045045045" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.0900900900901" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="85.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="85.8738738738739" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.1981981981982" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="20.1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1247,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>43094</v>
       </c>
       <c r="B4" s="7">
@@ -1246,7 +1256,7 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1255,14 +1265,14 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>43094</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1280,7 +1290,7 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1307,26 +1317,28 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="8922"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>机器有问题，带回公司又可以用了，原因没找到</t>
+  </si>
+  <si>
+    <t>茶姬未央</t>
+  </si>
+  <si>
+    <t>快餐点菜默认渠道是美团外卖</t>
+  </si>
+  <si>
+    <t>北京给了新的安装包</t>
+  </si>
+  <si>
+    <t>1.0前端2.0后台会员功能打开，1.0前端更新没用</t>
+  </si>
+  <si>
+    <t>正常更新没用，需要重启服务，多重启几次就可以了</t>
   </si>
 </sst>
 </file>
@@ -90,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,112 +143,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,27 +242,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,13 +301,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,169 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +547,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,30 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,21 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,11 +621,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,137 +664,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +832,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,24 +1200,24 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="E6:F6"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.2702702702703" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.045045045045" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.0900900900901" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.2666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.0416666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.0916666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="85.8738738738739" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.1981981981982" style="4" customWidth="1"/>
+    <col min="5" max="5" width="85.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.2" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1316,29 +1343,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>43181</v>
+      </c>
+      <c r="B8" s="14">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="13"/>
+    <row r="10" spans="2:4">
+      <c r="B10" s="17"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>正常更新没用，需要重启服务，多重启几次就可以了</t>
+  </si>
+  <si>
+    <t>漫时光炸鸡铺</t>
+  </si>
+  <si>
+    <t>调试打印模板，开启自定义后58打印机模板可以调试可以打印，标签打印机不出单</t>
+  </si>
+  <si>
+    <t>后台把标签打印机改为80纸张宽度</t>
   </si>
 </sst>
 </file>
@@ -301,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,149 +661,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,18 +841,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,7 +1201,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1344,13 +1341,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>43181</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="7">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1364,9 +1361,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="4" t="s">
         <v>26</v>
@@ -1376,12 +1373,25 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="17"/>
+      <c r="B10" s="13"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="17"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>43192</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>后台把标签打印机改为80纸张宽度</t>
+  </si>
+  <si>
+    <t>京茶山（济南店）</t>
+  </si>
+  <si>
+    <t>标签打印机，最后一单会卡半张纸</t>
   </si>
 </sst>
 </file>
@@ -151,8 +157,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,41 +261,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,58 +295,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,6 +316,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,13 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,72 +478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,43 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,45 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,26 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +600,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,11 +1203,11 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1391,6 +1397,20 @@
       </c>
       <c r="F11" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:5">
